--- a/FantaSoccer/MyModule/Ligue1/xGA_tot_all_18.xlsx
+++ b/FantaSoccer/MyModule/Ligue1/xGA_tot_all_18.xlsx
@@ -815,31 +815,31 @@
         <v>7.3370743</v>
       </c>
       <c r="K6">
-        <v>7.3370743</v>
+        <v>7.455798300000001</v>
       </c>
       <c r="L6">
-        <v>8.367064299999999</v>
+        <v>8.485788299999999</v>
       </c>
       <c r="M6">
-        <v>9.0391473</v>
+        <v>9.1578713</v>
       </c>
       <c r="N6">
-        <v>11.6665173</v>
+        <v>11.7852413</v>
       </c>
       <c r="O6">
-        <v>12.1703393</v>
+        <v>12.2890633</v>
       </c>
       <c r="P6">
-        <v>13.7875293</v>
+        <v>13.9062533</v>
       </c>
       <c r="Q6">
-        <v>14.7160203</v>
+        <v>14.8347443</v>
       </c>
       <c r="R6">
-        <v>15.8764003</v>
+        <v>15.9951243</v>
       </c>
       <c r="S6">
-        <v>17.0528803</v>
+        <v>17.1716043</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1051,31 +1051,31 @@
         <v>12.477043</v>
       </c>
       <c r="K10">
-        <v>12.477043</v>
+        <v>14.027083</v>
       </c>
       <c r="L10">
-        <v>12.801244</v>
+        <v>14.351284</v>
       </c>
       <c r="M10">
-        <v>12.801244</v>
+        <v>14.351284</v>
       </c>
       <c r="N10">
-        <v>13.123527</v>
+        <v>14.673567</v>
       </c>
       <c r="O10">
-        <v>13.50816</v>
+        <v>15.0582</v>
       </c>
       <c r="P10">
-        <v>15.21587</v>
+        <v>16.76591</v>
       </c>
       <c r="Q10">
-        <v>16.38436</v>
+        <v>17.9344</v>
       </c>
       <c r="R10">
-        <v>16.747506</v>
+        <v>18.297546</v>
       </c>
       <c r="S10">
-        <v>17.527894</v>
+        <v>19.077934</v>
       </c>
     </row>
     <row r="11" spans="1:19">
